--- a/static/doc/gantt_1.xlsx
+++ b/static/doc/gantt_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Documents\GitHub\officegeek\static\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F2EF2C-5E17-40D9-B18D-03F7C4C11697}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC121E6-846C-43F8-8130-7E6ED515B26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7125" yWindow="435" windowWidth="29565" windowHeight="15195" xr2:uid="{5DF978EE-CC83-463B-898D-7A6753FA8A5D}"/>
   </bookViews>
@@ -2245,7 +2245,7 @@
   <dimension ref="A2:BH53"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/static/doc/gantt_1.xlsx
+++ b/static/doc/gantt_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tue Hellstern\Documents\GitHub\officegeek\static\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC121E6-846C-43F8-8130-7E6ED515B26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF64FA17-2820-4F51-99BA-640CB86C0EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="435" windowWidth="29565" windowHeight="15195" xr2:uid="{5DF978EE-CC83-463B-898D-7A6753FA8A5D}"/>
+    <workbookView xWindow="2205" yWindow="1590" windowWidth="18600" windowHeight="12495" xr2:uid="{5DF978EE-CC83-463B-898D-7A6753FA8A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Faser</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Gantt diagram</t>
+  </si>
+  <si>
+    <t>Opg_Imple_5</t>
   </si>
 </sst>
 </file>
@@ -170,9 +173,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="dd"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="ddd"/>
+    <numFmt numFmtId="164" formatCode="dd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="ddd"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -272,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,7 +288,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -297,13 +300,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,51 +324,12 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="75">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -373,16 +344,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -409,321 +375,6 @@
           <bgColor rgb="FFEAEAEA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -754,8 +405,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tue" pivot="0" table="0" count="10" xr9:uid="{10ADBCF1-5045-4922-81B3-7A4EBE950DC3}">
-      <tableStyleElement type="wholeTable" dxfId="74"/>
-      <tableStyleElement type="headerRow" dxfId="73"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1038,8 +689,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Vælg face(r)">
@@ -1062,7 +713,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1116,8 +767,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>83925</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Ansvarlig">
@@ -1140,7 +791,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1531,7 +1182,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tue Hellstern" refreshedDate="44052.670705092591" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="14" xr:uid="{3304832A-B498-4E2F-8A84-EFCDD800158A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Tue Hellstern" refreshedDate="44059.918879861114" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{3304832A-B498-4E2F-8A84-EFCDD800158A}">
   <cacheSource type="worksheet">
     <worksheetSource name="Data"/>
   </cacheSource>
@@ -1545,7 +1196,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Aktivitet" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="15">
         <s v="Opgave_A_1"/>
         <s v="Opgave_A_2"/>
         <s v="Opgave_A_3"/>
@@ -1560,6 +1211,7 @@
         <s v="Opg_Imple_2"/>
         <s v="Opg_Imple_3"/>
         <s v="Opg_Imple_4"/>
+        <s v="Opg_Imple_5"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ansvarlig" numFmtId="0">
@@ -1571,13 +1223,13 @@
       </sharedItems>
     </cacheField>
     <cacheField name="StartDato" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-07-30T00:00:00" maxDate="2020-09-25T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-08-06T00:00:00" maxDate="2020-10-07T00:00:00"/>
     </cacheField>
     <cacheField name="Antal arbejdsdage" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
     </cacheField>
     <cacheField name="SlutDato" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-08-02T00:00:00" maxDate="2020-09-29T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2020-08-09T00:00:00" maxDate="2020-10-09T00:00:00"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1589,125 +1241,133 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="14">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
-    <d v="2020-07-30T00:00:00"/>
+    <d v="2020-08-06T00:00:00"/>
     <n v="2"/>
-    <d v="2020-08-02T00:00:00"/>
+    <d v="2020-08-09T00:00:00"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <x v="0"/>
-    <d v="2020-08-03T00:00:00"/>
+    <d v="2020-08-10T00:00:00"/>
     <n v="2"/>
-    <d v="2020-08-04T00:00:00"/>
+    <d v="2020-08-11T00:00:00"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <x v="1"/>
-    <d v="2020-08-05T00:00:00"/>
+    <d v="2020-08-12T00:00:00"/>
     <n v="3"/>
-    <d v="2020-08-09T00:00:00"/>
+    <d v="2020-08-16T00:00:00"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <x v="2"/>
-    <d v="2020-08-10T00:00:00"/>
+    <d v="2020-08-17T00:00:00"/>
     <n v="2"/>
-    <d v="2020-08-11T00:00:00"/>
+    <d v="2020-08-18T00:00:00"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <x v="0"/>
-    <d v="2020-08-12T00:00:00"/>
+    <d v="2020-08-19T00:00:00"/>
     <n v="2"/>
-    <d v="2020-08-13T00:00:00"/>
+    <d v="2020-08-20T00:00:00"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <x v="3"/>
-    <d v="2020-08-14T00:00:00"/>
+    <d v="2020-08-21T00:00:00"/>
     <n v="4"/>
-    <d v="2020-08-19T00:00:00"/>
+    <d v="2020-08-26T00:00:00"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
     <x v="2"/>
-    <d v="2020-08-20T00:00:00"/>
+    <d v="2020-08-27T00:00:00"/>
     <n v="1"/>
-    <d v="2020-08-20T00:00:00"/>
+    <d v="2020-08-27T00:00:00"/>
   </r>
   <r>
     <x v="2"/>
     <x v="7"/>
     <x v="2"/>
-    <d v="2020-08-21T00:00:00"/>
+    <d v="2020-08-28T00:00:00"/>
     <n v="3"/>
-    <d v="2020-08-25T00:00:00"/>
+    <d v="2020-09-01T00:00:00"/>
   </r>
   <r>
     <x v="2"/>
     <x v="8"/>
     <x v="2"/>
-    <d v="2020-08-26T00:00:00"/>
+    <d v="2020-09-02T00:00:00"/>
     <n v="4"/>
-    <d v="2020-08-31T00:00:00"/>
+    <d v="2020-09-07T00:00:00"/>
   </r>
   <r>
     <x v="2"/>
     <x v="9"/>
     <x v="2"/>
-    <d v="2020-09-01T00:00:00"/>
+    <d v="2020-09-08T00:00:00"/>
     <n v="3"/>
-    <d v="2020-09-03T00:00:00"/>
+    <d v="2020-09-10T00:00:00"/>
   </r>
   <r>
     <x v="3"/>
     <x v="10"/>
     <x v="0"/>
-    <d v="2020-09-04T00:00:00"/>
+    <d v="2020-09-11T00:00:00"/>
     <n v="5"/>
-    <d v="2020-09-10T00:00:00"/>
+    <d v="2020-09-17T00:00:00"/>
   </r>
   <r>
     <x v="3"/>
     <x v="11"/>
     <x v="1"/>
-    <d v="2020-09-11T00:00:00"/>
+    <d v="2020-09-18T00:00:00"/>
     <n v="4"/>
-    <d v="2020-09-16T00:00:00"/>
+    <d v="2020-09-23T00:00:00"/>
   </r>
   <r>
     <x v="3"/>
     <x v="12"/>
     <x v="1"/>
-    <d v="2020-09-17T00:00:00"/>
+    <d v="2020-09-24T00:00:00"/>
     <n v="5"/>
-    <d v="2020-09-23T00:00:00"/>
+    <d v="2020-09-30T00:00:00"/>
   </r>
   <r>
     <x v="3"/>
     <x v="13"/>
     <x v="1"/>
-    <d v="2020-09-24T00:00:00"/>
+    <d v="2020-10-01T00:00:00"/>
     <n v="3"/>
-    <d v="2020-09-28T00:00:00"/>
+    <d v="2020-10-05T00:00:00"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="14"/>
+    <x v="0"/>
+    <d v="2020-10-06T00:00:00"/>
+    <n v="3"/>
+    <d v="2020-10-08T00:00:00"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89B2E01D-2522-4F10-B8F3-3B4F68FB28F7}" name="PivotData" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="B2:D16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{89B2E01D-2522-4F10-B8F3-3B4F68FB28F7}" name="PivotData" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Værdier" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B2:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
       <items count="5">
@@ -1719,7 +1379,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="15">
+      <items count="16">
         <item x="10"/>
         <item x="11"/>
         <item x="12"/>
@@ -1734,6 +1394,7 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
+        <item x="14"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -1762,7 +1423,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="15">
     <i>
       <x v="4"/>
     </i>
@@ -1805,6 +1466,9 @@
     <i>
       <x v="3"/>
     </i>
+    <i>
+      <x v="14"/>
+    </i>
   </rowItems>
   <colFields count="1">
     <field x="-2"/>
@@ -1822,7 +1486,7 @@
     <dataField name="Maks af SlutDato" fld="5" subtotal="max" baseField="1" baseItem="0" numFmtId="14"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="34">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -1834,7 +1498,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -1858,7 +1522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1924,17 +1588,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56CF81BB-DAB8-4103-9AFF-49AC4DE6221C}" name="Data" displayName="Data" ref="B6:G20" totalsRowShown="0">
-  <autoFilter ref="B6:G20" xr:uid="{E847AA1A-3EA3-4CFB-A657-9AEBA640BBD0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56CF81BB-DAB8-4103-9AFF-49AC4DE6221C}" name="Data" displayName="Data" ref="B6:G21" totalsRowShown="0">
+  <autoFilter ref="B6:G21" xr:uid="{E847AA1A-3EA3-4CFB-A657-9AEBA640BBD0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{BFBDF184-90E2-494C-94A0-C9A19A809AE7}" name="Faser"/>
     <tableColumn id="2" xr3:uid="{B65B7754-25FC-4E3E-892A-43B19F18692A}" name="Aktivitet"/>
     <tableColumn id="7" xr3:uid="{7675B406-8C49-41FC-BD1E-7FB142FE2358}" name="Ansvarlig"/>
-    <tableColumn id="3" xr3:uid="{E4155C08-A7C7-4E2D-924B-F9566E79A2C7}" name="StartDato" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{E4155C08-A7C7-4E2D-924B-F9566E79A2C7}" name="StartDato" dataDxfId="5">
       <calculatedColumnFormula>C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{6AE468A3-889E-4936-963B-50ECE9760D2F}" name="Antal arbejdsdage" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{E40364B9-49DB-4580-BDBF-333BFB0C758B}" name="SlutDato" dataDxfId="14">
+    <tableColumn id="5" xr3:uid="{6AE468A3-889E-4936-963B-50ECE9760D2F}" name="Antal arbejdsdage" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E40364B9-49DB-4580-BDBF-333BFB0C758B}" name="SlutDato" dataDxfId="3">
       <calculatedColumnFormula>WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2259,12 +1923,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:60" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="C6"/>
@@ -2276,464 +1940,464 @@
     </row>
     <row r="8" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <f ca="1">F9</f>
-        <v>44042</v>
-      </c>
-      <c r="G8" s="20">
+        <v>44056</v>
+      </c>
+      <c r="G8" s="16">
         <f t="shared" ref="G8:BH8" ca="1" si="0">G9</f>
-        <v>44043</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44044</v>
-      </c>
-      <c r="I8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44045</v>
-      </c>
-      <c r="J8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44046</v>
-      </c>
-      <c r="K8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44047</v>
-      </c>
-      <c r="L8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44048</v>
-      </c>
-      <c r="M8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44049</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44050</v>
-      </c>
-      <c r="O8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44051</v>
-      </c>
-      <c r="P8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44052</v>
-      </c>
-      <c r="Q8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44053</v>
-      </c>
-      <c r="R8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44054</v>
-      </c>
-      <c r="S8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44055</v>
-      </c>
-      <c r="T8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44056</v>
-      </c>
-      <c r="U8" s="20">
-        <f t="shared" ca="1" si="0"/>
         <v>44057</v>
       </c>
-      <c r="V8" s="20">
+      <c r="H8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44058</v>
       </c>
-      <c r="W8" s="20">
+      <c r="I8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44059</v>
       </c>
-      <c r="X8" s="20">
+      <c r="J8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44060</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="K8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44061</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="L8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44062</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="M8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44063</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="N8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44064</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="O8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44065</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="P8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44066</v>
       </c>
-      <c r="AE8" s="20">
+      <c r="Q8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44067</v>
       </c>
-      <c r="AF8" s="20">
+      <c r="R8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44068</v>
       </c>
-      <c r="AG8" s="20">
+      <c r="S8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44069</v>
       </c>
-      <c r="AH8" s="20">
+      <c r="T8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44070</v>
       </c>
-      <c r="AI8" s="20">
+      <c r="U8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44071</v>
       </c>
-      <c r="AJ8" s="20">
+      <c r="V8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44072</v>
       </c>
-      <c r="AK8" s="20">
+      <c r="W8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44073</v>
       </c>
-      <c r="AL8" s="20">
+      <c r="X8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44074</v>
       </c>
-      <c r="AM8" s="20">
+      <c r="Y8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44075</v>
       </c>
-      <c r="AN8" s="20">
+      <c r="Z8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44076</v>
       </c>
-      <c r="AO8" s="20">
+      <c r="AA8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44077</v>
       </c>
-      <c r="AP8" s="20">
+      <c r="AB8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44078</v>
       </c>
-      <c r="AQ8" s="20">
+      <c r="AC8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44079</v>
       </c>
-      <c r="AR8" s="20">
+      <c r="AD8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44080</v>
       </c>
-      <c r="AS8" s="20">
+      <c r="AE8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44081</v>
       </c>
-      <c r="AT8" s="20">
+      <c r="AF8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44082</v>
       </c>
-      <c r="AU8" s="20">
+      <c r="AG8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44083</v>
       </c>
-      <c r="AV8" s="20">
+      <c r="AH8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44084</v>
       </c>
-      <c r="AW8" s="20">
+      <c r="AI8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44085</v>
       </c>
-      <c r="AX8" s="20">
+      <c r="AJ8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44086</v>
       </c>
-      <c r="AY8" s="20">
+      <c r="AK8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44087</v>
       </c>
-      <c r="AZ8" s="20">
+      <c r="AL8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44088</v>
       </c>
-      <c r="BA8" s="20">
+      <c r="AM8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44089</v>
       </c>
-      <c r="BB8" s="20">
+      <c r="AN8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44090</v>
       </c>
-      <c r="BC8" s="20">
+      <c r="AO8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44091</v>
       </c>
-      <c r="BD8" s="20">
+      <c r="AP8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44092</v>
       </c>
-      <c r="BE8" s="20">
+      <c r="AQ8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44093</v>
       </c>
-      <c r="BF8" s="20">
+      <c r="AR8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44094</v>
       </c>
-      <c r="BG8" s="20">
+      <c r="AS8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44095</v>
       </c>
-      <c r="BH8" s="20">
+      <c r="AT8" s="16">
         <f t="shared" ca="1" si="0"/>
         <v>44096</v>
+      </c>
+      <c r="AU8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44097</v>
+      </c>
+      <c r="AV8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44098</v>
+      </c>
+      <c r="AW8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44099</v>
+      </c>
+      <c r="AX8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44100</v>
+      </c>
+      <c r="AY8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44101</v>
+      </c>
+      <c r="AZ8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44102</v>
+      </c>
+      <c r="BA8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44103</v>
+      </c>
+      <c r="BB8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44104</v>
+      </c>
+      <c r="BC8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44105</v>
+      </c>
+      <c r="BD8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44106</v>
+      </c>
+      <c r="BE8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44107</v>
+      </c>
+      <c r="BF8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44108</v>
+      </c>
+      <c r="BG8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44109</v>
+      </c>
+      <c r="BH8" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>44110</v>
       </c>
     </row>
     <row r="9" spans="1:60" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="12">
         <f ca="1">MIN(Data[StartDato])</f>
-        <v>44042</v>
+        <v>44056</v>
       </c>
       <c r="G9" s="12">
         <f ca="1">F9+1</f>
-        <v>44043</v>
+        <v>44057</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" ref="H9:BH9" ca="1" si="1">G9+1</f>
-        <v>44044</v>
+        <v>44058</v>
       </c>
       <c r="I9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44045</v>
+        <v>44059</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44046</v>
+        <v>44060</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44047</v>
+        <v>44061</v>
       </c>
       <c r="L9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44048</v>
+        <v>44062</v>
       </c>
       <c r="M9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44049</v>
+        <v>44063</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44050</v>
+        <v>44064</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44051</v>
+        <v>44065</v>
       </c>
       <c r="P9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44052</v>
+        <v>44066</v>
       </c>
       <c r="Q9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44053</v>
+        <v>44067</v>
       </c>
       <c r="R9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44054</v>
+        <v>44068</v>
       </c>
       <c r="S9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44055</v>
+        <v>44069</v>
       </c>
       <c r="T9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44056</v>
+        <v>44070</v>
       </c>
       <c r="U9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44057</v>
+        <v>44071</v>
       </c>
       <c r="V9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44058</v>
+        <v>44072</v>
       </c>
       <c r="W9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44059</v>
+        <v>44073</v>
       </c>
       <c r="X9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44060</v>
+        <v>44074</v>
       </c>
       <c r="Y9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44061</v>
+        <v>44075</v>
       </c>
       <c r="Z9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44062</v>
+        <v>44076</v>
       </c>
       <c r="AA9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44063</v>
+        <v>44077</v>
       </c>
       <c r="AB9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44064</v>
+        <v>44078</v>
       </c>
       <c r="AC9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44065</v>
+        <v>44079</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44066</v>
+        <v>44080</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44067</v>
+        <v>44081</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44068</v>
+        <v>44082</v>
       </c>
       <c r="AG9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44069</v>
+        <v>44083</v>
       </c>
       <c r="AH9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44070</v>
+        <v>44084</v>
       </c>
       <c r="AI9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44071</v>
+        <v>44085</v>
       </c>
       <c r="AJ9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44072</v>
+        <v>44086</v>
       </c>
       <c r="AK9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44073</v>
+        <v>44087</v>
       </c>
       <c r="AL9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44074</v>
+        <v>44088</v>
       </c>
       <c r="AM9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44075</v>
+        <v>44089</v>
       </c>
       <c r="AN9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44076</v>
+        <v>44090</v>
       </c>
       <c r="AO9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44077</v>
+        <v>44091</v>
       </c>
       <c r="AP9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44078</v>
+        <v>44092</v>
       </c>
       <c r="AQ9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44079</v>
+        <v>44093</v>
       </c>
       <c r="AR9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44080</v>
+        <v>44094</v>
       </c>
       <c r="AS9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44081</v>
+        <v>44095</v>
       </c>
       <c r="AT9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44082</v>
+        <v>44096</v>
       </c>
       <c r="AU9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44083</v>
+        <v>44097</v>
       </c>
       <c r="AV9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44084</v>
+        <v>44098</v>
       </c>
       <c r="AW9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44085</v>
+        <v>44099</v>
       </c>
       <c r="AX9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44086</v>
+        <v>44100</v>
       </c>
       <c r="AY9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44087</v>
+        <v>44101</v>
       </c>
       <c r="AZ9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44088</v>
+        <v>44102</v>
       </c>
       <c r="BA9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44089</v>
+        <v>44103</v>
       </c>
       <c r="BB9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44090</v>
+        <v>44104</v>
       </c>
       <c r="BC9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44091</v>
+        <v>44105</v>
       </c>
       <c r="BD9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44092</v>
+        <v>44106</v>
       </c>
       <c r="BE9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44093</v>
+        <v>44107</v>
       </c>
       <c r="BF9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44094</v>
+        <v>44108</v>
       </c>
       <c r="BG9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44095</v>
+        <v>44109</v>
       </c>
       <c r="BH9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>44096</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="10" spans="1:60" x14ac:dyDescent="0.25">
@@ -2743,11 +2407,11 @@
       </c>
       <c r="C10" s="6">
         <f>IF(PivotData!C3="","",PivotData!C3)</f>
-        <v>44042</v>
+        <v>44049</v>
       </c>
       <c r="D10" s="6">
         <f>IF(PivotData!D3="","",PivotData!D3)</f>
-        <v>44045</v>
+        <v>44052</v>
       </c>
       <c r="E10" s="9">
         <f>IFERROR(NETWORKDAYS(C10,D10),"")</f>
@@ -2761,11 +2425,11 @@
       </c>
       <c r="C11" s="6">
         <f>IF(PivotData!C4="","",PivotData!C4)</f>
-        <v>44046</v>
+        <v>44053</v>
       </c>
       <c r="D11" s="6">
         <f>IF(PivotData!D4="","",PivotData!D4)</f>
-        <v>44047</v>
+        <v>44054</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" ref="E11:E36" si="2">IFERROR(NETWORKDAYS(C11,D11),"")</f>
@@ -2779,11 +2443,11 @@
       </c>
       <c r="C12" s="6">
         <f>IF(PivotData!C5="","",PivotData!C5)</f>
-        <v>44048</v>
+        <v>44055</v>
       </c>
       <c r="D12" s="6">
         <f>IF(PivotData!D5="","",PivotData!D5)</f>
-        <v>44052</v>
+        <v>44059</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
@@ -2797,11 +2461,11 @@
       </c>
       <c r="C13" s="6">
         <f>IF(PivotData!C6="","",PivotData!C6)</f>
-        <v>44053</v>
+        <v>44060</v>
       </c>
       <c r="D13" s="6">
         <f>IF(PivotData!D6="","",PivotData!D6)</f>
-        <v>44054</v>
+        <v>44061</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
@@ -2815,11 +2479,11 @@
       </c>
       <c r="C14" s="6">
         <f>IF(PivotData!C7="","",PivotData!C7)</f>
-        <v>44055</v>
+        <v>44062</v>
       </c>
       <c r="D14" s="6">
         <f>IF(PivotData!D7="","",PivotData!D7)</f>
-        <v>44056</v>
+        <v>44063</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
@@ -2833,11 +2497,11 @@
       </c>
       <c r="C15" s="6">
         <f>IF(PivotData!C8="","",PivotData!C8)</f>
-        <v>44057</v>
+        <v>44064</v>
       </c>
       <c r="D15" s="6">
         <f>IF(PivotData!D8="","",PivotData!D8)</f>
-        <v>44062</v>
+        <v>44069</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
@@ -2851,11 +2515,11 @@
       </c>
       <c r="C16" s="6">
         <f>IF(PivotData!C9="","",PivotData!C9)</f>
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="D16" s="6">
         <f>IF(PivotData!D9="","",PivotData!D9)</f>
-        <v>44063</v>
+        <v>44070</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
@@ -2869,11 +2533,11 @@
       </c>
       <c r="C17" s="6">
         <f>IF(PivotData!C10="","",PivotData!C10)</f>
-        <v>44064</v>
+        <v>44071</v>
       </c>
       <c r="D17" s="6">
         <f>IF(PivotData!D10="","",PivotData!D10)</f>
-        <v>44068</v>
+        <v>44075</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" si="2"/>
@@ -2887,11 +2551,11 @@
       </c>
       <c r="C18" s="6">
         <f>IF(PivotData!C11="","",PivotData!C11)</f>
-        <v>44069</v>
+        <v>44076</v>
       </c>
       <c r="D18" s="6">
         <f>IF(PivotData!D11="","",PivotData!D11)</f>
-        <v>44074</v>
+        <v>44081</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
@@ -2905,11 +2569,11 @@
       </c>
       <c r="C19" s="6">
         <f>IF(PivotData!C12="","",PivotData!C12)</f>
-        <v>44075</v>
+        <v>44082</v>
       </c>
       <c r="D19" s="6">
         <f>IF(PivotData!D12="","",PivotData!D12)</f>
-        <v>44077</v>
+        <v>44084</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
@@ -2923,11 +2587,11 @@
       </c>
       <c r="C20" s="6">
         <f>IF(PivotData!C13="","",PivotData!C13)</f>
-        <v>44078</v>
+        <v>44085</v>
       </c>
       <c r="D20" s="6">
         <f>IF(PivotData!D13="","",PivotData!D13)</f>
-        <v>44084</v>
+        <v>44091</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="2"/>
@@ -2941,11 +2605,11 @@
       </c>
       <c r="C21" s="6">
         <f>IF(PivotData!C14="","",PivotData!C14)</f>
-        <v>44085</v>
+        <v>44092</v>
       </c>
       <c r="D21" s="6">
         <f>IF(PivotData!D14="","",PivotData!D14)</f>
-        <v>44090</v>
+        <v>44097</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
@@ -2959,11 +2623,11 @@
       </c>
       <c r="C22" s="6">
         <f>IF(PivotData!C15="","",PivotData!C15)</f>
-        <v>44091</v>
+        <v>44098</v>
       </c>
       <c r="D22" s="6">
         <f>IF(PivotData!D15="","",PivotData!D15)</f>
-        <v>44097</v>
+        <v>44104</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="2"/>
@@ -2977,11 +2641,11 @@
       </c>
       <c r="C23" s="6">
         <f>IF(PivotData!C16="","",PivotData!C16)</f>
-        <v>44098</v>
+        <v>44105</v>
       </c>
       <c r="D23" s="6">
         <f>IF(PivotData!D16="","",PivotData!D16)</f>
-        <v>44102</v>
+        <v>44109</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="2"/>
@@ -2991,19 +2655,19 @@
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f>IF(PivotData!B17="","",PivotData!B17)</f>
-        <v/>
-      </c>
-      <c r="C24" s="6" t="str">
+        <v>Opg_Imple_5</v>
+      </c>
+      <c r="C24" s="6">
         <f>IF(PivotData!C17="","",PivotData!C17)</f>
-        <v/>
-      </c>
-      <c r="D24" s="6" t="str">
+        <v>44110</v>
+      </c>
+      <c r="D24" s="6">
         <f>IF(PivotData!D17="","",PivotData!D17)</f>
-        <v/>
-      </c>
-      <c r="E24" s="9" t="str">
+        <v>44112</v>
+      </c>
+      <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -3304,22 +2968,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:BH40">
-    <cfRule type="expression" dxfId="22" priority="5">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>AND($B10&lt;&gt;"",MOD(ROW(),2)=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:CT33">
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>AND($C10&lt;&gt;"",MEDIAN($C10,$D10,F$9)=F$9,WEEKDAY(F$9,2)&lt;6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:CA39">
-    <cfRule type="expression" dxfId="20" priority="4">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>AND($B10&lt;&gt;"",F$9=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:BH9">
-    <cfRule type="expression" dxfId="19" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>WEEKDAY(F$9,2)&gt;=6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3358,10 +3022,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3380,7 +3044,7 @@
       </c>
       <c r="C1" s="15">
         <f ca="1">TODAY()-10</f>
-        <v>44042</v>
+        <v>44056</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>35</v>
@@ -3418,14 +3082,14 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" ref="E7" ca="1" si="0">C1</f>
-        <v>44042</v>
+        <v>44056</v>
       </c>
       <c r="F7" s="1">
         <v>2</v>
       </c>
       <c r="G7" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44045</v>
+        <v>44059</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -3440,14 +3104,14 @@
       </c>
       <c r="E8" s="2">
         <f ca="1">G7+1</f>
-        <v>44046</v>
+        <v>44060</v>
       </c>
       <c r="F8" s="1">
         <v>2</v>
       </c>
       <c r="G8" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44047</v>
+        <v>44061</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
@@ -3462,14 +3126,14 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" ref="E9:E20" ca="1" si="1">G8+1</f>
-        <v>44048</v>
+        <v>44062</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44052</v>
+        <v>44066</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
@@ -3484,14 +3148,14 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44053</v>
+        <v>44067</v>
       </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
       <c r="G10" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44054</v>
+        <v>44068</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -3506,14 +3170,14 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44055</v>
+        <v>44069</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44056</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
@@ -3528,14 +3192,14 @@
       </c>
       <c r="E12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44057</v>
+        <v>44071</v>
       </c>
       <c r="F12" s="1">
         <v>4</v>
       </c>
       <c r="G12" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44062</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -3550,14 +3214,14 @@
       </c>
       <c r="E13" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44063</v>
+        <v>44077</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44063</v>
+        <v>44077</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
@@ -3572,14 +3236,14 @@
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44064</v>
+        <v>44078</v>
       </c>
       <c r="F14" s="1">
         <v>3</v>
       </c>
       <c r="G14" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44068</v>
+        <v>44082</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -3594,14 +3258,14 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44069</v>
+        <v>44083</v>
       </c>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44074</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -3616,14 +3280,14 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44075</v>
+        <v>44089</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
       <c r="G16" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44077</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -3638,14 +3302,14 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44078</v>
+        <v>44092</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
       <c r="G17" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44084</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
@@ -3660,14 +3324,14 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44085</v>
+        <v>44099</v>
       </c>
       <c r="F18" s="1">
         <v>4</v>
       </c>
       <c r="G18" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44090</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -3682,14 +3346,14 @@
       </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44091</v>
+        <v>44105</v>
       </c>
       <c r="F19" s="1">
         <v>5</v>
       </c>
       <c r="G19" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44097</v>
+        <v>44111</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -3704,14 +3368,35 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44098</v>
+        <v>44112</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
       </c>
       <c r="G20" s="2">
         <f ca="1">WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
-        <v>44102</v>
+        <v>44116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44110</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2">
+        <f>WORKDAY(Data[[#This Row],[StartDato]],Data[[#This Row],[Antal arbejdsdage]])-1</f>
+        <v>44112</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +3417,7 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:D16"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
@@ -3761,154 +3446,165 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="21">
-        <v>44042</v>
-      </c>
-      <c r="D3" s="21">
-        <v>44045</v>
+      <c r="C3" s="17">
+        <v>44049</v>
+      </c>
+      <c r="D3" s="17">
+        <v>44052</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21">
-        <v>44046</v>
-      </c>
-      <c r="D4" s="21">
-        <v>44047</v>
+      <c r="C4" s="17">
+        <v>44053</v>
+      </c>
+      <c r="D4" s="17">
+        <v>44054</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21">
-        <v>44048</v>
-      </c>
-      <c r="D5" s="21">
-        <v>44052</v>
+      <c r="C5" s="17">
+        <v>44055</v>
+      </c>
+      <c r="D5" s="17">
+        <v>44059</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="21">
-        <v>44053</v>
-      </c>
-      <c r="D6" s="21">
-        <v>44054</v>
+      <c r="C6" s="17">
+        <v>44060</v>
+      </c>
+      <c r="D6" s="17">
+        <v>44061</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="21">
-        <v>44055</v>
-      </c>
-      <c r="D7" s="21">
-        <v>44056</v>
+      <c r="C7" s="17">
+        <v>44062</v>
+      </c>
+      <c r="D7" s="17">
+        <v>44063</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21">
-        <v>44057</v>
-      </c>
-      <c r="D8" s="21">
-        <v>44062</v>
+      <c r="C8" s="17">
+        <v>44064</v>
+      </c>
+      <c r="D8" s="17">
+        <v>44069</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
-        <v>44063</v>
-      </c>
-      <c r="D9" s="21">
-        <v>44063</v>
+      <c r="C9" s="17">
+        <v>44070</v>
+      </c>
+      <c r="D9" s="17">
+        <v>44070</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21">
-        <v>44064</v>
-      </c>
-      <c r="D10" s="21">
-        <v>44068</v>
+      <c r="C10" s="17">
+        <v>44071</v>
+      </c>
+      <c r="D10" s="17">
+        <v>44075</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="21">
-        <v>44069</v>
-      </c>
-      <c r="D11" s="21">
-        <v>44074</v>
+      <c r="C11" s="17">
+        <v>44076</v>
+      </c>
+      <c r="D11" s="17">
+        <v>44081</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21">
-        <v>44075</v>
-      </c>
-      <c r="D12" s="21">
-        <v>44077</v>
+      <c r="C12" s="17">
+        <v>44082</v>
+      </c>
+      <c r="D12" s="17">
+        <v>44084</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="21">
-        <v>44078</v>
-      </c>
-      <c r="D13" s="21">
-        <v>44084</v>
+      <c r="C13" s="17">
+        <v>44085</v>
+      </c>
+      <c r="D13" s="17">
+        <v>44091</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
-        <v>44085</v>
-      </c>
-      <c r="D14" s="21">
-        <v>44090</v>
+      <c r="C14" s="17">
+        <v>44092</v>
+      </c>
+      <c r="D14" s="17">
+        <v>44097</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21">
-        <v>44091</v>
-      </c>
-      <c r="D15" s="21">
-        <v>44097</v>
+      <c r="C15" s="17">
+        <v>44098</v>
+      </c>
+      <c r="D15" s="17">
+        <v>44104</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="21">
-        <v>44098</v>
-      </c>
-      <c r="D16" s="21">
-        <v>44102</v>
+      <c r="C16" s="17">
+        <v>44105</v>
+      </c>
+      <c r="D16" s="17">
+        <v>44109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="22">
+        <v>44110</v>
+      </c>
+      <c r="D17" s="17">
+        <v>44112</v>
       </c>
     </row>
   </sheetData>
